--- a/梦间集/3-6.xlsx
+++ b/梦间集/3-6.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魍魉碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四花灵犀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,11 +60,27 @@
     <t>三花角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魍魉碎片(女)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魍魉碎片(男)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +153,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,25 +439,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -470,46 +487,57 @@
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>COUNT(B3:B1000)</f>
+        <v>53</v>
+      </c>
       <c r="B2" s="4">
         <f>AVERAGEA(B4:B10000)</f>
-        <v>0</v>
+        <v>0.28301886792452829</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:J2" si="0">AVERAGE(C4:C10000)</f>
-        <v>0</v>
+        <f t="shared" ref="C2:K2" si="0">AVERAGE(C4:C10000)</f>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="E2" s="4">
         <f>AVERAGE(E4:E10000)</f>
-        <v>0.5</v>
+        <v>0.52830188679245282</v>
       </c>
       <c r="F2" s="4">
         <f>AVERAGE(F4:F10000)</f>
-        <v>0.5</v>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(G4:G10000)</f>
+        <v>0.20754716981132076</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.8867924528301886E-2</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16981132075471697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -517,31 +545,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42965</v>
+      </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -555,22 +589,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -590,16 +627,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>0</v>
       </c>
@@ -613,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -625,10 +665,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>42966</v>
+      </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -648,12 +694,1589 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>42967</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
         <v>0</v>
       </c>
     </row>

--- a/梦间集/3-6.xlsx
+++ b/梦间集/3-6.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +159,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,24 +445,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <pane ySplit="4" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -491,123 +497,145 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>COUNT(B3:B1000)</f>
-        <v>53</v>
-      </c>
-      <c r="B2" s="4">
-        <f>AVERAGEA(B4:B10000)</f>
-        <v>0.28301886792452829</v>
-      </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:K2" si="0">AVERAGE(C4:C10000)</f>
-        <v>9.4339622641509441E-2</v>
-      </c>
-      <c r="D2" s="4">
+        <f>COUNT(B5:B1001)</f>
+        <v>105</v>
+      </c>
+      <c r="B2" s="1">
+        <f>SUM(B5:B1000)</f>
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:K2" si="0">SUM(C5:C1000)</f>
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(D5:D1000)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUM(E5:E1000)+3</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="E2" s="4">
-        <f>AVERAGE(E4:E10000)</f>
-        <v>0.52830188679245282</v>
-      </c>
-      <c r="F2" s="4">
-        <f>AVERAGE(F4:F10000)</f>
-        <v>5.6603773584905662E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <f>AVERAGE(G4:G10000)</f>
-        <v>0.20754716981132076</v>
-      </c>
-      <c r="H2" s="4">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>1.8867924528301886E-2</v>
-      </c>
-      <c r="I2" s="4">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>0.90566037735849059</v>
-      </c>
-      <c r="J2" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>0.41509433962264153</v>
-      </c>
-      <c r="K2" s="4">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>0.16981132075471697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(50-E2)/E3</f>
+        <v>2362.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2*20</f>
+        <v>2100</v>
+      </c>
+      <c r="B3" s="4">
+        <f>AVERAGE(B5:B10001)</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="C3" s="4">
+        <f>AVERAGE(C5:C10001)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D3" s="4">
+        <f>AVERAGE(D5:D10001)</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="E3" s="4">
+        <f>AVERAGE(E5:E10001)</f>
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(F5:F10001)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:K3" si="1">AVERAGE(G5:G10001)</f>
+        <v>0.10476190476190476</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12380952380952381</v>
+      </c>
+      <c r="L3" s="6">
+        <f>L2*20</f>
+        <v>47250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>42965</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -615,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -633,15 +661,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -656,59 +684,59 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>42966</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -717,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -738,15 +766,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -764,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -781,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -790,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -802,18 +830,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -831,12 +859,12 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -845,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -863,18 +891,18 @@
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -886,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -898,9 +926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -909,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -927,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -944,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -959,12 +987,12 @@
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -991,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -1008,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1023,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -1034,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1052,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -1069,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1084,15 +1112,15 @@
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1107,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1116,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>0</v>
       </c>
@@ -1130,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1153,43 +1181,43 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" t="s">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -1206,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1221,15 +1249,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1244,18 +1272,18 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1267,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -1293,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1311,13 +1339,13 @@
         <v>1</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -1328,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1349,44 +1377,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>42967</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1395,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -1407,30 +1435,30 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1439,18 +1467,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1477,24 +1505,24 @@
         <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1512,12 +1540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1526,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1544,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>0</v>
       </c>
@@ -1555,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1570,15 +1598,15 @@
         <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -1587,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1608,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -1619,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1634,27 +1662,27 @@
         <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1666,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -1689,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -1704,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>0</v>
       </c>
@@ -1715,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1727,18 +1755,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -1747,39 +1775,39 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1800,9 +1828,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -1811,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1826,13 +1854,13 @@
         <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>1</v>
       </c>
@@ -1843,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1864,21 +1892,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1890,15 +1918,15 @@
         <v>1</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1907,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -1925,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1957,12 +1985,12 @@
         <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -1974,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -1992,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>0</v>
       </c>
@@ -2003,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2024,9 +2052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2038,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2056,18 +2084,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2088,9 +2116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2114,18 +2142,18 @@
         <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -2137,56 +2165,56 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2195,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -2213,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -2224,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2248,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -2262,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2274,9 +2302,1708 @@
         <v>1</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>42968</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
         <v>0</v>
       </c>
     </row>

--- a/梦间集/3-6.xlsx
+++ b/梦间集/3-6.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -445,24 +445,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
+      <pane ySplit="4" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -497,107 +497,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>COUNT(B5:B1001)</f>
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(B5:B1000)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:K2" si="0">SUM(C5:C1000)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(D5:D1000)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <f>SUM(E5:E1000)+3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
         <f>(50-E2)/E3</f>
-        <v>2362.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1657.3333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2*20</f>
-        <v>2100</v>
+        <v>2260</v>
       </c>
       <c r="B3" s="4">
         <f>AVERAGE(B5:B10001)</f>
-        <v>0.47619047619047616</v>
+        <v>0.47787610619469029</v>
       </c>
       <c r="C3" s="4">
         <f>AVERAGE(C5:C10001)</f>
-        <v>0.14285714285714285</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="D3" s="4">
         <f>AVERAGE(D5:D10001)</f>
-        <v>0.19047619047619047</v>
+        <v>0.18584070796460178</v>
       </c>
       <c r="E3" s="4">
         <f>AVERAGE(E5:E10001)</f>
-        <v>1.9047619047619049E-2</v>
+        <v>2.6548672566371681E-2</v>
       </c>
       <c r="F3" s="4">
         <f>AVERAGE(F5:F10001)</f>
-        <v>0.26666666666666666</v>
+        <v>0.27433628318584069</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:K3" si="1">AVERAGE(G5:G10001)</f>
-        <v>0.10476190476190476</v>
+        <v>0.11504424778761062</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>5.7142857142857141E-2</v>
+        <v>6.1946902654867256E-2</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>0.88571428571428568</v>
+        <v>0.87610619469026552</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
+        <v>0.47787610619469029</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>0.12380952380952381</v>
+        <v>0.13274336283185842</v>
       </c>
       <c r="L3" s="6">
         <f>L2*20</f>
-        <v>47250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33146.666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>42965</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>42966</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>1</v>
       </c>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>1</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>0</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>0</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>0</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>0</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>1</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>42967</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>1</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>0</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>1</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>1</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>1</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>0</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>1</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>1</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>1</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>1</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>1</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>1</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>1</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>1</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>0</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>1</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>0</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>0</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>0</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>1</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>0</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>42968</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>1</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>0</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>0</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>1</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>1</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>0</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>0</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>1</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>0</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>0</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>1</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>0</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>0</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>1</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>0</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>0</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>1</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>0</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>0</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>1</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>1</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>0</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>1</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>0</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>1</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>1</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>1</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>1</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>1</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <v>0</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>0</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>0</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <v>0</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>1</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>0</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>0</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>0</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>0</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>0</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>0</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>0</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>0</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>1</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>0</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>1</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>0</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>1</v>
       </c>
@@ -4005,6 +4005,262 @@
       </c>
       <c r="K109" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/梦间集/3-6.xlsx
+++ b/梦间集/3-6.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -445,24 +445,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+      <pane ySplit="4" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K152" sqref="K148:K152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -497,121 +498,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>COUNT(B5:B1001)</f>
-        <v>113</v>
+        <f>COUNT(D5:D1001)</f>
+        <v>148</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(B5:B1000)</f>
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:K2" si="0">SUM(C5:C1000)</f>
-        <v>16</v>
+        <f>SUM(C5:C1000)+3</f>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(D5:D1000)</f>
+        <v>72</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:K2" si="0">SUM(E5:E1000)</f>
         <v>21</v>
-      </c>
-      <c r="E2" s="1">
-        <f>SUM(E5:E1000)+3</f>
-        <v>6</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1">
-        <f>(50-E2)/E3</f>
-        <v>1657.3333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <f>(50-C2)/C3</f>
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2*20</f>
-        <v>2260</v>
+        <v>2960</v>
       </c>
       <c r="B3" s="4">
         <f>AVERAGE(B5:B10001)</f>
-        <v>0.47787610619469029</v>
+        <v>0.19594594594594594</v>
       </c>
       <c r="C3" s="4">
         <f>AVERAGE(C5:C10001)</f>
-        <v>0.1415929203539823</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="D3" s="4">
         <f>AVERAGE(D5:D10001)</f>
-        <v>0.18584070796460178</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="E3" s="4">
         <f>AVERAGE(E5:E10001)</f>
-        <v>2.6548672566371681E-2</v>
+        <v>0.14189189189189189</v>
       </c>
       <c r="F3" s="4">
         <f>AVERAGE(F5:F10001)</f>
-        <v>0.27433628318584069</v>
+        <v>0.29054054054054052</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:K3" si="1">AVERAGE(G5:G10001)</f>
-        <v>0.11504424778761062</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>6.1946902654867256E-2</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>0.87610619469026552</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>0.47787610619469029</v>
+        <v>0.46621621621621623</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>0.13274336283185842</v>
+        <v>0.11486486486486487</v>
       </c>
       <c r="L3" s="6">
         <f>L2*20</f>
-        <v>33146.666666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
@@ -632,18 +633,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42965</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -667,15 +668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -699,15 +700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -731,18 +732,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>42966</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -766,15 +767,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -798,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -830,15 +831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -862,15 +863,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -894,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -926,18 +927,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -958,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -990,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -1054,15 +1055,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1086,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -1118,15 +1119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1150,15 +1151,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1182,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>0</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -1249,15 +1250,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1281,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -1313,15 +1314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1345,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -1377,15 +1378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1409,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>42967</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -1476,15 +1477,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1508,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>0</v>
       </c>
@@ -1540,18 +1541,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1572,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>0</v>
       </c>
@@ -1604,15 +1605,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -1636,15 +1637,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -1668,15 +1669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -1700,15 +1701,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -1732,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>0</v>
       </c>
@@ -1764,15 +1765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -1796,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>1</v>
       </c>
@@ -1828,15 +1829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -1860,15 +1861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -1892,15 +1893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -1924,15 +1925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -1956,18 +1957,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1988,15 +1989,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -2020,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>0</v>
       </c>
@@ -2052,15 +2053,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -2084,18 +2085,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2116,15 +2117,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -2148,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>0</v>
       </c>
@@ -2180,15 +2181,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -2212,15 +2213,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -2244,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -2276,15 +2277,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -2308,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>0</v>
       </c>
@@ -2340,18 +2341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>42968</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -2375,15 +2376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2407,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>0</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>0</v>
       </c>
@@ -2471,15 +2472,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -2503,18 +2504,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -2535,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>0</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>0</v>
       </c>
@@ -2631,15 +2632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -2663,15 +2664,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -2695,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>0</v>
       </c>
@@ -2727,15 +2728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -2759,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>0</v>
       </c>
@@ -2791,18 +2792,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -2823,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>0</v>
       </c>
@@ -2855,18 +2856,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -2887,15 +2888,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -2919,15 +2920,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -2951,18 +2952,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -2983,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>0</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>1</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>0</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>0</v>
       </c>
@@ -3111,15 +3112,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -3143,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>1</v>
       </c>
@@ -3175,15 +3176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -3207,15 +3208,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -3239,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>0</v>
       </c>
@@ -3271,15 +3272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -3303,15 +3304,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3335,15 +3336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -3367,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>1</v>
       </c>
@@ -3399,15 +3400,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -3431,18 +3432,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>0</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -3463,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>0</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>0</v>
       </c>
@@ -3527,18 +3528,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -3559,18 +3560,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="1">
         <v>1</v>
@@ -3591,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>0</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>0</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>0</v>
       </c>
@@ -3687,18 +3688,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>0</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -3719,18 +3720,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>0</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -3751,18 +3752,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -3783,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>0</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>0</v>
       </c>
@@ -3847,18 +3848,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -3879,18 +3880,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>0</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -3911,15 +3912,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -3943,18 +3944,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
       </c>
       <c r="E108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
@@ -3975,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>1</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>0</v>
       </c>
@@ -4039,15 +4040,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4071,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>0</v>
       </c>
@@ -4103,15 +4104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1">
         <v>0</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
@@ -4135,18 +4136,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>0</v>
       </c>
       <c r="C114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -4167,18 +4168,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" s="1">
         <v>1</v>
@@ -4199,15 +4200,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
       </c>
       <c r="D116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
@@ -4231,15 +4232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -4261,6 +4262,1126 @@
       </c>
       <c r="K117" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>1</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1">
+        <v>1</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1">
+        <v>1</v>
+      </c>
+      <c r="K127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>1</v>
+      </c>
+      <c r="J130" s="1">
+        <v>1</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>1</v>
+      </c>
+      <c r="J135" s="1">
+        <v>1</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>1</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1</v>
+      </c>
+      <c r="J148" s="1">
+        <v>1</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="1">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/梦间集/3-6.xlsx
+++ b/梦间集/3-6.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -445,25 +445,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K152" sqref="K148:K152"/>
+      <pane ySplit="4" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -498,107 +498,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>COUNT(D5:D1001)</f>
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(B5:B1000)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <f>SUM(C5:C1000)+3</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(D5:D1000)</f>
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:K2" si="0">SUM(E5:E1000)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1">
         <f>(50-C2)/C3</f>
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1114.2857142857144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2*20</f>
-        <v>2960</v>
+        <v>3900</v>
       </c>
       <c r="B3" s="4">
         <f>AVERAGE(B5:B10001)</f>
-        <v>0.19594594594594594</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="C3" s="4">
         <f>AVERAGE(C5:C10001)</f>
-        <v>2.7027027027027029E-2</v>
+        <v>3.5897435897435895E-2</v>
       </c>
       <c r="D3" s="4">
         <f>AVERAGE(D5:D10001)</f>
-        <v>0.48648648648648651</v>
+        <v>0.47179487179487178</v>
       </c>
       <c r="E3" s="4">
         <f>AVERAGE(E5:E10001)</f>
-        <v>0.14189189189189189</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="F3" s="4">
         <f>AVERAGE(F5:F10001)</f>
-        <v>0.29054054054054052</v>
+        <v>0.28205128205128205</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:K3" si="1">AVERAGE(G5:G10001)</f>
-        <v>0.10810810810810811</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>5.4054054054054057E-2</v>
+        <v>5.6410256410256411E-2</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>0.86486486486486491</v>
+        <v>0.84102564102564104</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>0.46621621621621623</v>
+        <v>0.49743589743589745</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>0.11486486486486487</v>
+        <v>0.11282051282051282</v>
       </c>
       <c r="L3" s="6">
         <f>L2*20</f>
-        <v>31820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22285.71428571429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>42965</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>42966</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>0</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>1</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>0</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>1</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>0</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>0</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>0</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>42967</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>0</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>0</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>0</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>0</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>0</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>0</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>0</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>0</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>0</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>1</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>0</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>0</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>0</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>0</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>0</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>0</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>0</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>0</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>0</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>0</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
         <v>1</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>0</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>1</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>0</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>42968</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>0</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>0</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>0</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>0</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>0</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>0</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>0</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>1</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>0</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>0</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>0</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>0</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>0</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>0</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>0</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>0</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>1</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>0</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>0</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>1</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>0</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>0</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>0</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>1</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>1</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>0</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>0</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>0</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>0</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>0</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>1</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>0</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <v>0</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <v>0</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <v>0</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <v>0</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <v>0</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>0</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>0</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>0</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>0</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>0</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>1</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>0</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>0</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>0</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>0</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>0</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>0</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>1</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <v>0</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>0</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>0</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>0</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>0</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>0</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>1</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>0</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>0</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>1</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>1</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>0</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
         <v>0</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>0</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>0</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>0</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>0</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>0</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>1</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>1</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>0</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <v>1</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <v>0</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <v>0</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <v>0</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
         <v>0</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
         <v>0</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
         <v>0</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
         <v>1</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <v>0</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
         <v>0</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
         <v>0</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
         <v>0</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
         <v>0</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
         <v>0</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
         <v>1</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <v>0</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <v>1</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <v>0</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <v>0</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
         <v>0</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
         <v>0</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
         <v>0</v>
       </c>
@@ -5381,6 +5381,1513 @@
         <v>1</v>
       </c>
       <c r="K152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>1</v>
+      </c>
+      <c r="J154" s="1">
+        <v>1</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>1</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B157" s="1">
+        <v>0</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>1</v>
+      </c>
+      <c r="I159" s="1">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>1</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1">
+        <v>1</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>1</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>1</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>1</v>
+      </c>
+      <c r="J163" s="1">
+        <v>1</v>
+      </c>
+      <c r="K163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B164" s="1">
+        <v>0</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>1</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>1</v>
+      </c>
+      <c r="J164" s="1">
+        <v>1</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>42970</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>1</v>
+      </c>
+      <c r="J166" s="1">
+        <v>0</v>
+      </c>
+      <c r="K166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>1</v>
+      </c>
+      <c r="J167" s="1">
+        <v>1</v>
+      </c>
+      <c r="K167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>1</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+      <c r="I169" s="1">
+        <v>1</v>
+      </c>
+      <c r="J169" s="1">
+        <v>1</v>
+      </c>
+      <c r="K169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>1</v>
+      </c>
+      <c r="J171" s="1">
+        <v>1</v>
+      </c>
+      <c r="K171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1">
+        <v>0</v>
+      </c>
+      <c r="K172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
+        <v>1</v>
+      </c>
+      <c r="J173" s="1">
+        <v>1</v>
+      </c>
+      <c r="K173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B174" s="1">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0</v>
+      </c>
+      <c r="I174" s="1">
+        <v>1</v>
+      </c>
+      <c r="J174" s="1">
+        <v>1</v>
+      </c>
+      <c r="K174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1">
+        <v>1</v>
+      </c>
+      <c r="K175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
+      <c r="I176" s="1">
+        <v>1</v>
+      </c>
+      <c r="J176" s="1">
+        <v>1</v>
+      </c>
+      <c r="K176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B177" s="1">
+        <v>0</v>
+      </c>
+      <c r="C177" s="1">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>1</v>
+      </c>
+      <c r="J177" s="1">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+      <c r="G179" s="1">
+        <v>1</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1">
+        <v>1</v>
+      </c>
+      <c r="K179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0</v>
+      </c>
+      <c r="G180" s="1">
+        <v>0</v>
+      </c>
+      <c r="H180" s="1">
+        <v>1</v>
+      </c>
+      <c r="I180" s="1">
+        <v>1</v>
+      </c>
+      <c r="J180" s="1">
+        <v>1</v>
+      </c>
+      <c r="K180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1">
+        <v>1</v>
+      </c>
+      <c r="J181" s="1">
+        <v>0</v>
+      </c>
+      <c r="K181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B182" s="1">
+        <v>0</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>1</v>
+      </c>
+      <c r="J182" s="1">
+        <v>1</v>
+      </c>
+      <c r="K182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+      <c r="I183" s="1">
+        <v>1</v>
+      </c>
+      <c r="J183" s="1">
+        <v>1</v>
+      </c>
+      <c r="K183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+      <c r="I184" s="1">
+        <v>1</v>
+      </c>
+      <c r="J184" s="1">
+        <v>1</v>
+      </c>
+      <c r="K184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0</v>
+      </c>
+      <c r="I185" s="1">
+        <v>1</v>
+      </c>
+      <c r="J185" s="1">
+        <v>0</v>
+      </c>
+      <c r="K185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1">
+        <v>1</v>
+      </c>
+      <c r="J186" s="1">
+        <v>1</v>
+      </c>
+      <c r="K186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+      <c r="I187" s="1">
+        <v>1</v>
+      </c>
+      <c r="J187" s="1">
+        <v>1</v>
+      </c>
+      <c r="K187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>1</v>
+      </c>
+      <c r="J188" s="1">
+        <v>1</v>
+      </c>
+      <c r="K188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+      <c r="G189" s="1">
+        <v>0</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189" s="1">
+        <v>1</v>
+      </c>
+      <c r="K189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0</v>
+      </c>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0</v>
+      </c>
+      <c r="I190" s="1">
+        <v>1</v>
+      </c>
+      <c r="J190" s="1">
+        <v>0</v>
+      </c>
+      <c r="K190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B191" s="1">
+        <v>0</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
+      <c r="I191" s="1">
+        <v>1</v>
+      </c>
+      <c r="J191" s="1">
+        <v>1</v>
+      </c>
+      <c r="K191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="K192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1</v>
+      </c>
+      <c r="G193" s="1">
+        <v>0</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
+      <c r="I193" s="1">
+        <v>1</v>
+      </c>
+      <c r="J193" s="1">
+        <v>1</v>
+      </c>
+      <c r="K193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B194" s="1">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0</v>
+      </c>
+      <c r="I194" s="1">
+        <v>1</v>
+      </c>
+      <c r="J194" s="1">
+        <v>1</v>
+      </c>
+      <c r="K194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1">
+        <v>1</v>
+      </c>
+      <c r="J195" s="1">
+        <v>1</v>
+      </c>
+      <c r="K195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0</v>
+      </c>
+      <c r="K196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B197" s="1">
+        <v>1</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0</v>
+      </c>
+      <c r="K197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
+      <c r="I198" s="1">
+        <v>1</v>
+      </c>
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
+      <c r="K198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>1</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="K199" s="1">
         <v>0</v>
       </c>
     </row>

--- a/梦间集/3-6.xlsx
+++ b/梦间集/3-6.xlsx
@@ -446,11 +446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G163" sqref="G163"/>
+      <pane ySplit="4" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,19 +501,19 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>COUNT(D5:D1001)</f>
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(B5:B1000)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1">
         <f>SUM(C5:C1000)+3</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(D5:D1000)</f>
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:K2" si="0">SUM(E5:E1000)</f>
@@ -521,11 +521,11 @@
       </c>
       <c r="F2" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="0"/>
@@ -533,69 +533,69 @@
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1">
         <f>(50-C2)/C3</f>
-        <v>1114.2857142857144</v>
+        <v>966.8888888888888</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>A2*20</f>
-        <v>3900</v>
+        <v>4580</v>
       </c>
       <c r="B3" s="4">
         <f>AVERAGE(B5:B10001)</f>
-        <v>0.17948717948717949</v>
+        <v>0.17903930131004367</v>
       </c>
       <c r="C3" s="4">
         <f>AVERAGE(C5:C10001)</f>
-        <v>3.5897435897435895E-2</v>
+        <v>3.9301310043668124E-2</v>
       </c>
       <c r="D3" s="4">
         <f>AVERAGE(D5:D10001)</f>
-        <v>0.47179487179487178</v>
+        <v>0.49344978165938863</v>
       </c>
       <c r="E3" s="4">
         <f>AVERAGE(E5:E10001)</f>
-        <v>0.13333333333333333</v>
+        <v>0.11353711790393013</v>
       </c>
       <c r="F3" s="4">
         <f>AVERAGE(F5:F10001)</f>
-        <v>0.28205128205128205</v>
+        <v>0.29257641921397382</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:K3" si="1">AVERAGE(G5:G10001)</f>
-        <v>0.10256410256410256</v>
+        <v>0.10480349344978165</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>5.6410256410256411E-2</v>
+        <v>4.8034934497816595E-2</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>0.84102564102564104</v>
+        <v>0.84279475982532748</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>0.49743589743589745</v>
+        <v>0.51528384279475981</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>0.11282051282051282</v>
+        <v>0.10043668122270742</v>
       </c>
       <c r="L3" s="6">
         <f>L2*20</f>
-        <v>22285.71428571429</v>
+        <v>19337.777777777777</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B193" s="1">
         <v>0</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B194" s="1">
         <v>1</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B195" s="1">
         <v>0</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B196" s="1">
         <v>0</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B197" s="1">
         <v>1</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B198" s="1">
         <v>0</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B199" s="1">
         <v>0</v>
       </c>
@@ -6888,6 +6888,1097 @@
         <v>0</v>
       </c>
       <c r="K199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>42971</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>1</v>
+      </c>
+      <c r="J200" s="1">
+        <v>1</v>
+      </c>
+      <c r="K200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1">
+        <v>1</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1">
+        <v>1</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+      <c r="I201" s="1">
+        <v>1</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0</v>
+      </c>
+      <c r="K201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B202" s="1">
+        <v>0</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+      <c r="E202" s="1">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1</v>
+      </c>
+      <c r="G202" s="1">
+        <v>0</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
+        <v>1</v>
+      </c>
+      <c r="J202" s="1">
+        <v>1</v>
+      </c>
+      <c r="K202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B203" s="1">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>1</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+      <c r="I203" s="1">
+        <v>1</v>
+      </c>
+      <c r="J203" s="1">
+        <v>0</v>
+      </c>
+      <c r="K203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+      <c r="G204" s="1">
+        <v>0</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
+      <c r="I204" s="1">
+        <v>1</v>
+      </c>
+      <c r="J204" s="1">
+        <v>1</v>
+      </c>
+      <c r="K204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+      <c r="G205" s="1">
+        <v>0</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>0</v>
+      </c>
+      <c r="K205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+      <c r="G206" s="1">
+        <v>0</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>1</v>
+      </c>
+      <c r="K206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="1">
+        <v>0</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+      <c r="K207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1">
+        <v>1</v>
+      </c>
+      <c r="G208" s="1">
+        <v>0</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0</v>
+      </c>
+      <c r="I208" s="1">
+        <v>1</v>
+      </c>
+      <c r="J208" s="1">
+        <v>1</v>
+      </c>
+      <c r="K208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1">
+        <v>1</v>
+      </c>
+      <c r="G209" s="1">
+        <v>0</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0</v>
+      </c>
+      <c r="I209" s="1">
+        <v>1</v>
+      </c>
+      <c r="J209" s="1">
+        <v>0</v>
+      </c>
+      <c r="K209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+      <c r="G210" s="1">
+        <v>0</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0</v>
+      </c>
+      <c r="I210" s="1">
+        <v>1</v>
+      </c>
+      <c r="J210" s="1">
+        <v>1</v>
+      </c>
+      <c r="K210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0</v>
+      </c>
+      <c r="I211" s="1">
+        <v>1</v>
+      </c>
+      <c r="J211" s="1">
+        <v>0</v>
+      </c>
+      <c r="K211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B212" s="1">
+        <v>0</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+      <c r="G212" s="1">
+        <v>0</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0</v>
+      </c>
+      <c r="I212" s="1">
+        <v>1</v>
+      </c>
+      <c r="J212" s="1">
+        <v>0</v>
+      </c>
+      <c r="K212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B213" s="1">
+        <v>0</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>1</v>
+      </c>
+      <c r="J213" s="1">
+        <v>0</v>
+      </c>
+      <c r="K213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B214" s="1">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
+      <c r="G214" s="1">
+        <v>0</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
+      <c r="I214" s="1">
+        <v>1</v>
+      </c>
+      <c r="J214" s="1">
+        <v>1</v>
+      </c>
+      <c r="K214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B215" s="1">
+        <v>0</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="1">
+        <v>1</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+      <c r="I215" s="1">
+        <v>1</v>
+      </c>
+      <c r="J215" s="1">
+        <v>1</v>
+      </c>
+      <c r="K215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>0</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+      <c r="G216" s="1">
+        <v>0</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+      <c r="J216" s="1">
+        <v>0</v>
+      </c>
+      <c r="K216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B217" s="1">
+        <v>1</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
+      </c>
+      <c r="I217" s="1">
+        <v>1</v>
+      </c>
+      <c r="J217" s="1">
+        <v>1</v>
+      </c>
+      <c r="K217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <v>1</v>
+      </c>
+      <c r="G218" s="1">
+        <v>0</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>1</v>
+      </c>
+      <c r="J218" s="1">
+        <v>1</v>
+      </c>
+      <c r="K218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+      <c r="G219" s="1">
+        <v>0</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>1</v>
+      </c>
+      <c r="J219" s="1">
+        <v>1</v>
+      </c>
+      <c r="K219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B220" s="1">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+      <c r="G220" s="1">
+        <v>0</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>1</v>
+      </c>
+      <c r="J220" s="1">
+        <v>1</v>
+      </c>
+      <c r="K220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>1</v>
+      </c>
+      <c r="J221" s="1">
+        <v>1</v>
+      </c>
+      <c r="K221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+      <c r="C222" s="1">
+        <v>0</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+      <c r="G222" s="1">
+        <v>0</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>1</v>
+      </c>
+      <c r="K222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+      <c r="C223" s="1">
+        <v>0</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+      <c r="G223" s="1">
+        <v>0</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0</v>
+      </c>
+      <c r="I223" s="1">
+        <v>1</v>
+      </c>
+      <c r="J223" s="1">
+        <v>1</v>
+      </c>
+      <c r="K223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B224" s="1">
+        <v>0</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <v>1</v>
+      </c>
+      <c r="G224" s="1">
+        <v>0</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0</v>
+      </c>
+      <c r="I224" s="1">
+        <v>1</v>
+      </c>
+      <c r="J224" s="1">
+        <v>0</v>
+      </c>
+      <c r="K224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B225" s="1">
+        <v>0</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+      <c r="G225" s="1">
+        <v>0</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1">
+        <v>1</v>
+      </c>
+      <c r="J225" s="1">
+        <v>0</v>
+      </c>
+      <c r="K225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1</v>
+      </c>
+      <c r="E226" s="1">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+      <c r="G226" s="1">
+        <v>1</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
+      </c>
+      <c r="I226" s="1">
+        <v>1</v>
+      </c>
+      <c r="J226" s="1">
+        <v>1</v>
+      </c>
+      <c r="K226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B227" s="1">
+        <v>0</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+      <c r="G227" s="1">
+        <v>0</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0</v>
+      </c>
+      <c r="I227" s="1">
+        <v>1</v>
+      </c>
+      <c r="J227" s="1">
+        <v>1</v>
+      </c>
+      <c r="K227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B228" s="1">
+        <v>0</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>1</v>
+      </c>
+      <c r="J228" s="1">
+        <v>1</v>
+      </c>
+      <c r="K228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B229" s="1">
+        <v>1</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0</v>
+      </c>
+      <c r="K229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>1</v>
+      </c>
+      <c r="J230" s="1">
+        <v>1</v>
+      </c>
+      <c r="K230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B231" s="1">
+        <v>1</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>1</v>
+      </c>
+      <c r="J231" s="1">
+        <v>1</v>
+      </c>
+      <c r="K231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+      <c r="G232" s="1">
+        <v>1</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1">
+        <v>1</v>
+      </c>
+      <c r="J232" s="1">
+        <v>1</v>
+      </c>
+      <c r="K232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B233" s="1">
+        <v>1</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0</v>
+      </c>
+      <c r="D233" s="1">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+      <c r="G233" s="1">
+        <v>0</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>1</v>
+      </c>
+      <c r="J233" s="1">
+        <v>0</v>
+      </c>
+      <c r="K233" s="1">
         <v>0</v>
       </c>
     </row>
